--- a/Eagle/Schematics & Board Layout/Tx Board Schematic/T08-TxClicker_BOM.xlsx
+++ b/Eagle/Schematics & Board Layout/Tx Board Schematic/T08-TxClicker_BOM.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="T08-TxClicker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="178">
   <si>
     <t>Qty</t>
   </si>
@@ -67,9 +67,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>RESISTOR, American symbol</t>
-  </si>
-  <si>
     <t>1.5pF</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>C3, C5, C10, C12, C15, C16, C18, C20, C21</t>
   </si>
   <si>
-    <t>CAPACITOR, European symbol</t>
-  </si>
-  <si>
     <t>100pF</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>2pF</t>
   </si>
   <si>
-    <t>C17, C19</t>
-  </si>
-  <si>
-    <t>C6, C7, C8</t>
-  </si>
-  <si>
     <t>3.3k</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>100x Price</t>
-  </si>
-  <si>
     <t>160-1183-1-ND</t>
   </si>
   <si>
@@ -380,13 +365,196 @@
   </si>
   <si>
     <t>LTST-C190GKT</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OSH PARK Board</t>
+  </si>
+  <si>
+    <t>478-6712-1-ND</t>
+  </si>
+  <si>
+    <t>Extended Price @100x</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>ML03511R5BAT2A</t>
+  </si>
+  <si>
+    <t>CAP CER MLO 1.5PF 50V NP0 0603</t>
+  </si>
+  <si>
+    <t>399-5089-1-ND</t>
+  </si>
+  <si>
+    <t>C0603C104K5RACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>399-7819-1-ND</t>
+  </si>
+  <si>
+    <t>C0603C101F5GACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 100PF 50V 1% NP0 0603</t>
+  </si>
+  <si>
+    <t>587-3238-1-ND</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>EMK107BBJ106MA-T</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 16V 20% X5R 0603</t>
+  </si>
+  <si>
+    <t>1276-2204-1-ND</t>
+  </si>
+  <si>
+    <t>CL10C160JB8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 16PF 50V 5% NP0 0603</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics America, Inc</t>
+  </si>
+  <si>
+    <t>478-6732-1-ND</t>
+  </si>
+  <si>
+    <t>ML03511R0AAT2A</t>
+  </si>
+  <si>
+    <t>CAP CER MLO 1PF 50V NP0 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 2000PF 50V 5% NP0 0603</t>
+  </si>
+  <si>
+    <t>490-1458-1-ND</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>GRM1885C1H202JA01D</t>
+  </si>
+  <si>
+    <t>C6, C7, C8, C17, C19</t>
+  </si>
+  <si>
+    <t>CAP CER MLO 2PF 50V NP0 0603</t>
+  </si>
+  <si>
+    <t>478-6717-1-ND</t>
+  </si>
+  <si>
+    <t>ML03512R0BAT2A</t>
+  </si>
+  <si>
+    <t>587-3171-1-ND</t>
+  </si>
+  <si>
+    <t>UMK107ABJ474KA-T</t>
+  </si>
+  <si>
+    <t>CAP CER 0.47UF 50V 10% X5R 0603</t>
+  </si>
+  <si>
+    <t>490-3567-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 8.2PF 50V NP0 0603</t>
+  </si>
+  <si>
+    <t>GQM1885C1H8R2CB01D</t>
+  </si>
+  <si>
+    <t>BHSD-2032-SMCT-ND</t>
+  </si>
+  <si>
+    <t>MPD (Memory Protection Devices)</t>
+  </si>
+  <si>
+    <t>BHSD-2032-SM</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>RHM0.0CGCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohm Semiconductor </t>
+  </si>
+  <si>
+    <t>MCR03ERTJ000</t>
+  </si>
+  <si>
+    <t>RES 0.0 OHM 1/10W JUMP 0603 SMD</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RES 47K OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603FT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT47K0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT56K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 56K OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603FT56K0</t>
+  </si>
+  <si>
+    <t>RES ARRAY 10K OHM 4 RES 2012</t>
+  </si>
+  <si>
+    <t>MNR34103CT-ND</t>
+  </si>
+  <si>
+    <t>MNR34J5ABJ103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +709,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -906,17 +1093,23 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,7 +1156,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,9 +1171,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:K43" totalsRowShown="0">
-  <autoFilter ref="A3:K43"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:L43" totalsRowShown="0">
+  <autoFilter ref="A3:L43">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="12">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Device"/>
@@ -984,10 +1187,13 @@
     <tableColumn id="5" name="Parts"/>
     <tableColumn id="6" name="Description"/>
     <tableColumn id="7" name="Digikey#"/>
+    <tableColumn id="13" name="Manufacturer"/>
+    <tableColumn id="14" name="Manufacturer P/N"/>
     <tableColumn id="8" name="Unit Price"/>
-    <tableColumn id="9" name="100x Price"/>
-    <tableColumn id="10" name="Manufacturer"/>
-    <tableColumn id="11" name="Manufacturer P/N"/>
+    <tableColumn id="9" name="Extended Price @100x"/>
+    <tableColumn id="10" name="Total Cost" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,24 +1486,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K43"/>
+  <dimension ref="A3:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1317,54 +1527,61 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
-        <v>116</v>
-      </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="3">
         <v>0.1188</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1380,8 +1597,12 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1397,70 +1618,152 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="L6">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="L7">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L9">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1469,368 +1772,628 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L10">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="L11">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.2142</v>
+      </c>
+      <c r="L12">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="L15">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="L16">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="L19">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="L20">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="L21">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="L22">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="L24">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L25">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L26">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L27">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.2848</v>
+      </c>
+      <c r="L28">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>73</v>
@@ -1844,8 +2407,12 @@
       <c r="F30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1855,25 +2422,44 @@
       <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="L31">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1884,68 +2470,78 @@
       <c r="F32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
         <v>86</v>
       </c>
-      <c r="F33" t="s">
+      <c r="L34">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1953,81 +2549,97 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="L36">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
         <v>94</v>
       </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>603</v>
+      </c>
+      <c r="E39" t="s">
         <v>97</v>
       </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>98</v>
       </c>
-      <c r="E39" t="s">
+      <c r="L39">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>603</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -2035,33 +2647,41 @@
       <c r="F40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>108</v>
@@ -2070,35 +2690,56 @@
         <v>108</v>
       </c>
       <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4</v>
+        <f>3.5*1.75</f>
+        <v>6.125</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f>SUM(Table1[Total Cost])</f>
+        <v>19.344999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="http://digikey.com/Suppliers/us/Lite-On.page?lang=en"/>
+    <hyperlink ref="H4" r:id="rId1" display="http://digikey.com/Suppliers/us/Lite-On.page?lang=en"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Eagle/Schematics & Board Layout/Tx Board Schematic/T08-TxClicker_BOM.xlsx
+++ b/Eagle/Schematics & Board Layout/Tx Board Schematic/T08-TxClicker_BOM.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="7995"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10230" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T08-TxClicker" sheetId="1" r:id="rId1"/>
+    <sheet name="T08-TxClicker_Rev1a" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T08-TxClicker_Rev1a'!$B$5:$O$53</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="376">
   <si>
     <t>Qty</t>
   </si>
@@ -761,13 +765,394 @@
   </si>
   <si>
     <t>CL05C010CB5NNNC</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP5, TP6, TP7, TP8, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28</t>
+  </si>
+  <si>
+    <t>0-DNI</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>C14, C17, C18, C21</t>
+  </si>
+  <si>
+    <t>C10, C13, C24, C26, C28, C31, C32, C33</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>R2, R3, R4, R5</t>
+  </si>
+  <si>
+    <t>C12, C16, C27</t>
+  </si>
+  <si>
+    <t>LL0402</t>
+  </si>
+  <si>
+    <t>L0402</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C20, C23</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R13, R14, R15, R16</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>26MHz</t>
+  </si>
+  <si>
+    <t>CRYSTALTXC-7A</t>
+  </si>
+  <si>
+    <t>CRYSTAL-TXC-7A</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C30, C34</t>
+  </si>
+  <si>
+    <t>R8, R9, R10, R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>CHIP-LED0603</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>CR2032-SNAPDRAGONCR2032</t>
+  </si>
+  <si>
+    <t>U$5</t>
+  </si>
+  <si>
+    <t>C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>SMA-SMD</t>
+  </si>
+  <si>
+    <t>X1-DNI, XCAL-DNI</t>
+  </si>
+  <si>
+    <t>SMA 50 Ohm Straight Jack Receptacle - Surface Mount</t>
+  </si>
+  <si>
+    <t>TC2030-MCP</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>TAG-CONNECT ISP ConnectorManufacturer: Tag-Connect</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>TOUCHPAD_SWITCH_COMBOSWITC_TOUCHPAD</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4</t>
+  </si>
+  <si>
+    <t>Closed Switch for tutorial schematics. Not intended for PCB design.</t>
+  </si>
+  <si>
+    <t>TP9</t>
+  </si>
+  <si>
+    <t>UCLAMP3304A</t>
+  </si>
+  <si>
+    <t>SOT666</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>~200nH</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>P0.0GCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10M0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 10M OHM 1/10W 5% 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10M0</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>P1.00KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>RES 3.3K OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603FT3K30CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT3K30</t>
+  </si>
+  <si>
+    <t>IC MCU 16B 32K W/RF CORE 48VQFN</t>
+  </si>
+  <si>
+    <t>296-27420-1-ND</t>
+  </si>
+  <si>
+    <t>CC430F5137IRGZR</t>
+  </si>
+  <si>
+    <t>C0402 (DNI, Experiment)</t>
+  </si>
+  <si>
+    <t>1284-1102-1-ND</t>
+  </si>
+  <si>
+    <t>American Technical Ceramics</t>
+  </si>
+  <si>
+    <t>600L1R0AT200T</t>
+  </si>
+  <si>
+    <t>CAP CER 1PF 200V NP0 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 1.5PF 200V NP0 0402</t>
+  </si>
+  <si>
+    <t>1284-1109-1-ND</t>
+  </si>
+  <si>
+    <t>600L1R5AT200T</t>
+  </si>
+  <si>
+    <t>CAP CER 100PF 50V 1% C0G 0402</t>
+  </si>
+  <si>
+    <t>445-5362-1-ND</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>C1005C0G1H101F050BA</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 16V 20% X5R 0603</t>
+  </si>
+  <si>
+    <t>490-7201-1-ND</t>
+  </si>
+  <si>
+    <t>GRM188R61C106MA73D</t>
+  </si>
+  <si>
+    <t>CAP CER 16PF 50V 1% NP0 0402</t>
+  </si>
+  <si>
+    <t>1276-2206-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 18PF 50V 1% NP0 0603</t>
+  </si>
+  <si>
+    <t>CL10C180FB8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 8.2PF 200V NP0 0402</t>
+  </si>
+  <si>
+    <t>1284-1136-1-ND</t>
+  </si>
+  <si>
+    <t>600L8R2BT200T</t>
+  </si>
+  <si>
+    <t>TXC CORPORATION</t>
+  </si>
+  <si>
+    <t>LED 1.6X0.8 470NM BL WTR CLR SMD</t>
+  </si>
+  <si>
+    <t>FIXED IND 12NH 640MA 120 MOHM</t>
+  </si>
+  <si>
+    <t>732-1725-1-ND</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc</t>
+  </si>
+  <si>
+    <t>744765112A</t>
+  </si>
+  <si>
+    <t>FIXED IND 18NH 420MA 230 MOHM</t>
+  </si>
+  <si>
+    <t>732-1729-1-ND</t>
+  </si>
+  <si>
+    <t>744765118A</t>
+  </si>
+  <si>
+    <t>FIXED IND 15NH 560MA 172 MOHM</t>
+  </si>
+  <si>
+    <t>732-1727-1-ND</t>
+  </si>
+  <si>
+    <t>744765115A</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2NH 960MA 70 MOHM</t>
+  </si>
+  <si>
+    <t>732-1706-1-ND</t>
+  </si>
+  <si>
+    <t>744765022A</t>
+  </si>
+  <si>
+    <t>FIXED IND 5.6NH 280MA 700 MOHM</t>
+  </si>
+  <si>
+    <t>732-2921-1-ND</t>
+  </si>
+  <si>
+    <t>FIXED IND 200NH 120MA 2.4 OHM</t>
+  </si>
+  <si>
+    <t>490-6929-1-ND</t>
+  </si>
+  <si>
+    <t>LQW18ANR20G00D</t>
+  </si>
+  <si>
+    <t>UCLAMP3304ACT-ND</t>
+  </si>
+  <si>
+    <t>TVS DIODE 3.3VWM 8VC SC896</t>
+  </si>
+  <si>
+    <t>Semtech</t>
+  </si>
+  <si>
+    <t>UCLAMP3304A.TCT</t>
+  </si>
+  <si>
+    <t>LED CHIPLED 633NM RED 0603 SMD</t>
+  </si>
+  <si>
+    <t>475-2512-1-ND</t>
+  </si>
+  <si>
+    <t>OSRAM Opto Semiconductors Inc</t>
+  </si>
+  <si>
+    <t>LS Q976-NR-1</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR THIN 0603 SMD</t>
+  </si>
+  <si>
+    <t>160-1446-1-ND</t>
+  </si>
+  <si>
+    <t>Lite-On Inc</t>
+  </si>
+  <si>
+    <t>LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>LED YELLOW CLEAR THIN 0603 SMD</t>
+  </si>
+  <si>
+    <t>LTST-C191KSKT</t>
+  </si>
+  <si>
+    <t>160-1448-1-ND</t>
+  </si>
+  <si>
+    <t>CONSMA001-SMD-G-ND</t>
+  </si>
+  <si>
+    <t>Linx Technologies Inc</t>
+  </si>
+  <si>
+    <t>CONSMA001-SMD-G</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>@100x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,8 +1320,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,8 +1509,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1232,8 +1631,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1276,8 +1686,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,8 +1703,29 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1327,6 +1759,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1337,7 +1770,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1370,20 +1803,123 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1455,6 +1991,23 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1558,34 +2111,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:N49" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A3:N49">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter val="C*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:N50" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A3:N50"/>
   <sortState ref="A4:N49">
     <sortCondition descending="1" ref="M3:M49"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Qty" dataDxfId="16"/>
-    <tableColumn id="2" name="Value" dataDxfId="15"/>
-    <tableColumn id="3" name="Device" dataDxfId="14"/>
-    <tableColumn id="4" name="Package" dataDxfId="13"/>
-    <tableColumn id="5" name="Parts" dataDxfId="12"/>
-    <tableColumn id="6" name="Description" dataDxfId="11"/>
-    <tableColumn id="7" name="Digikey#" dataDxfId="10"/>
-    <tableColumn id="12" name="Mouser" dataDxfId="3"/>
-    <tableColumn id="13" name="Manufacturer" dataDxfId="9"/>
-    <tableColumn id="14" name="Manufacturer P/N" dataDxfId="8"/>
-    <tableColumn id="8" name="Unit Price" dataDxfId="7"/>
-    <tableColumn id="9" name="Extended Price @100x" dataDxfId="6"/>
-    <tableColumn id="11" name="Total Cost 100x" dataDxfId="5">
+    <tableColumn id="1" name="Qty" dataDxfId="28"/>
+    <tableColumn id="2" name="Value" dataDxfId="27"/>
+    <tableColumn id="3" name="Device" dataDxfId="26"/>
+    <tableColumn id="4" name="Package" dataDxfId="25"/>
+    <tableColumn id="5" name="Parts" dataDxfId="24"/>
+    <tableColumn id="6" name="Description" dataDxfId="23"/>
+    <tableColumn id="7" name="Digikey#" dataDxfId="22"/>
+    <tableColumn id="12" name="Mouser" dataDxfId="21"/>
+    <tableColumn id="13" name="Manufacturer" dataDxfId="20"/>
+    <tableColumn id="14" name="Manufacturer P/N" dataDxfId="19"/>
+    <tableColumn id="8" name="Unit Price" dataDxfId="18"/>
+    <tableColumn id="9" name="Extended Price @100x" dataDxfId="17"/>
+    <tableColumn id="11" name="Total Cost 100x" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[Extended Price @100x]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Cost 1x" dataDxfId="4">
+    <tableColumn id="10" name="Total Cost 1x" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1882,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +2494,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1990,7 +2537,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2078,7 +2625,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>3.5*1.75</f>
         <v>6.125</v>
@@ -2160,7 +2707,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2292,7 +2839,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2336,7 +2883,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2468,7 +3015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -2508,7 +3055,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2552,7 +3099,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2596,7 +3143,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2772,7 +3319,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2814,7 +3361,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2856,7 +3403,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2900,7 +3447,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2944,7 +3491,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2988,7 +3535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -3032,7 +3579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -3076,7 +3623,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3112,7 +3659,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -3282,7 +3829,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3326,7 +3873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -3370,7 +3917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3412,7 +3959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3488,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3520,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3554,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3586,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3618,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -3662,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -3706,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -3750,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -3794,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -3828,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3873,8 +4420,14 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="M50" s="4">
+        <f>60.24/100</f>
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="N50" s="4">
+        <f>Table1[[#This Row],[Unit Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3901,7 +4454,7 @@
       </c>
       <c r="B53">
         <f>SUM(Table1[Total Cost 100x])</f>
-        <v>9.5490000000000013</v>
+        <v>10.151400000000001</v>
       </c>
       <c r="D53">
         <f>1%*B52</f>
@@ -3918,15 +4471,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N8:N50">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
       <formula>$D$53</formula>
       <formula>$E$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
       <formula>$E$53</formula>
       <formula>$F$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>$F$53</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3936,4 +4489,2063 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>$A$3*B6</f>
+        <v>104</v>
+      </c>
+      <c r="B6" s="13">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>$A$3*B7</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ref="A8:A53" si="0">$A$3*B8</f>
+        <v>16</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="L8">
+        <v>1.5</v>
+      </c>
+      <c r="M8">
+        <v>0.86709999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11">
+        <v>0.45</v>
+      </c>
+      <c r="M11">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>0.19670000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L15">
+        <v>0.47</v>
+      </c>
+      <c r="M15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="L16">
+        <v>0.47</v>
+      </c>
+      <c r="M16">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17">
+        <v>0.34</v>
+      </c>
+      <c r="M17">
+        <v>0.14119999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="L18">
+        <v>0.47</v>
+      </c>
+      <c r="M18">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19">
+        <v>0.16</v>
+      </c>
+      <c r="M19">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="13">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20">
+        <v>0.1</v>
+      </c>
+      <c r="M20">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L21">
+        <v>1.5</v>
+      </c>
+      <c r="M21">
+        <v>0.86709999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L23">
+        <v>0.47</v>
+      </c>
+      <c r="M23">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24">
+        <v>0.79</v>
+      </c>
+      <c r="M24">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25">
+        <v>0.13</v>
+      </c>
+      <c r="M25">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26">
+        <v>0.6</v>
+      </c>
+      <c r="M26">
+        <v>0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28">
+        <v>0.11</v>
+      </c>
+      <c r="M28">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29">
+        <v>0.1</v>
+      </c>
+      <c r="M29">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="9">
+        <v>744901056</v>
+      </c>
+      <c r="L30">
+        <v>0.38</v>
+      </c>
+      <c r="M30">
+        <v>0.24379999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31">
+        <v>0.1</v>
+      </c>
+      <c r="M31">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L32">
+        <v>1.78</v>
+      </c>
+      <c r="M32">
+        <v>1.0295000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34">
+        <v>0.39</v>
+      </c>
+      <c r="M34">
+        <v>0.21129999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35">
+        <v>6.97</v>
+      </c>
+      <c r="M35">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36">
+        <v>0.9</v>
+      </c>
+      <c r="M36">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B37" s="13">
+        <v>4</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41">
+        <v>0.09</v>
+      </c>
+      <c r="M41">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B49" s="13">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M51">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52">
+        <v>0.32</v>
+      </c>
+      <c r="M52">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53">
+        <v>0.36</v>
+      </c>
+      <c r="M53">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <f>27/4</f>
+        <v>6.75</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="2">
+        <f>SUM(L7:L41,L45:L54)</f>
+        <v>29.839999999999996</v>
+      </c>
+      <c r="C57" s="2">
+        <f>SUM(M7:M54)</f>
+        <v>13.8649</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:O53"/>
+  <hyperlinks>
+    <hyperlink ref="J21" r:id="rId1" display="http://digikey.com/Suppliers/us/atceramics.page?lang=en"/>
+    <hyperlink ref="J22" r:id="rId2" display="http://digikey.com/Suppliers/us/samsung-electro-mechanics.page?lang=en"/>
+    <hyperlink ref="J8" r:id="rId3" display="http://digikey.com/Suppliers/us/atceramics.page?lang=en"/>
+    <hyperlink ref="J9" r:id="rId4" display="http://digikey.com/Suppliers/us/Murata-Electronics.page?lang=en"/>
+    <hyperlink ref="J10" r:id="rId5" display="http://digikey.com/Suppliers/us/Kemet.page?lang=en"/>
+    <hyperlink ref="J14" r:id="rId6" display="http://digikey.com/Suppliers/us/Murata-Electronics.page?lang=en"/>
+    <hyperlink ref="J19" r:id="rId7" display="http://digikey.com/Suppliers/us/samsung-electro-mechanics.page?lang=en"/>
+    <hyperlink ref="J25" r:id="rId8" display="http://digikey.com/Suppliers/us/Murata-Electronics.page?lang=en"/>
+    <hyperlink ref="J32" r:id="rId9" display="http://digikey.com/Suppliers/us/atceramics.page?lang=en"/>
+    <hyperlink ref="J33" r:id="rId10" display="http://digikey.com/Suppliers/us/Taiyo-Yuden.page?lang=en"/>
+    <hyperlink ref="J24" r:id="rId11" display="http://digikey.com/Suppliers/us/TXC-Corporation.page?lang=en"/>
+    <hyperlink ref="J34" r:id="rId12" display="http://digikey.com/Suppliers/us/Kingbright.page?lang=en"/>
+    <hyperlink ref="J36" r:id="rId13" display="http://digikey.com/Suppliers/us/Memory-Protection-Devices.page?lang=en"/>
+    <hyperlink ref="J15" r:id="rId14" display="http://digikey.com/Suppliers/us/Wurth-Electronics.page?lang=en"/>
+    <hyperlink ref="J18" r:id="rId15" display="http://digikey.com/Suppliers/us/Wurth-Electronics.page?lang=en"/>
+    <hyperlink ref="J16" r:id="rId16" display="http://digikey.com/Suppliers/us/Wurth-Electronics.page?lang=en"/>
+    <hyperlink ref="J23" r:id="rId17" display="http://digikey.com/Suppliers/us/Wurth-Electronics.page?lang=en"/>
+    <hyperlink ref="J30" r:id="rId18" display="http://digikey.com/Suppliers/us/Wurth-Electronics.page?lang=en"/>
+    <hyperlink ref="J53" r:id="rId19" display="http://digikey.com/Suppliers/us/Murata-Electronics.page?lang=en"/>
+    <hyperlink ref="J51" r:id="rId20" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
+    <hyperlink ref="J41" r:id="rId21" display="http://digikey.com/Suppliers/us/Osram.page?lang=en"/>
+    <hyperlink ref="J39" r:id="rId22" display="http://digikey.com/Suppliers/us/Lite-On.page?lang=en"/>
+    <hyperlink ref="J52" r:id="rId23" display="http://digikey.com/Suppliers/us/Lite-On.page?lang=en"/>
+    <hyperlink ref="J42" r:id="rId24" display="http://digikey.com/Suppliers/us/Linx-Technologies.page?lang=en"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+</worksheet>
 </file>